--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H2">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I2">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J2">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.497973</v>
+        <v>13.69681033333333</v>
       </c>
       <c r="N2">
-        <v>34.493919</v>
+        <v>41.090431</v>
       </c>
       <c r="O2">
-        <v>0.09461878261088343</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="P2">
-        <v>0.09461878261088341</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="Q2">
-        <v>2.972095710139333</v>
+        <v>0.3660929121927778</v>
       </c>
       <c r="R2">
-        <v>26.748861391254</v>
+        <v>3.294836209735</v>
       </c>
       <c r="S2">
-        <v>0.07710920427734742</v>
+        <v>0.03463984676403695</v>
       </c>
       <c r="T2">
-        <v>0.07710920427734741</v>
+        <v>0.03463984676403695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H3">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I3">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J3">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>298.307327</v>
       </c>
       <c r="O3">
-        <v>0.8182739724253053</v>
+        <v>0.8037307792188669</v>
       </c>
       <c r="P3">
-        <v>0.8182739724253052</v>
+        <v>0.803730779218867</v>
       </c>
       <c r="Q3">
-        <v>25.70302107104244</v>
+        <v>2.657752557277222</v>
       </c>
       <c r="R3">
-        <v>231.327189639382</v>
+        <v>23.919773015495</v>
       </c>
       <c r="S3">
-        <v>0.6668491514423883</v>
+        <v>0.2514775300329524</v>
       </c>
       <c r="T3">
-        <v>0.6668491514423882</v>
+        <v>0.2514775300329525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2584886666666666</v>
+        <v>0.02672833333333334</v>
       </c>
       <c r="H4">
-        <v>0.775466</v>
+        <v>0.08018500000000001</v>
       </c>
       <c r="I4">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="J4">
-        <v>0.8149460619722454</v>
+        <v>0.3128877685602129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>31.755537</v>
       </c>
       <c r="O4">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577355</v>
       </c>
       <c r="P4">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577354</v>
       </c>
       <c r="Q4">
-        <v>2.736148806137999</v>
+        <v>0.2829241927050001</v>
       </c>
       <c r="R4">
-        <v>24.625339255242</v>
+        <v>2.546317734345001</v>
       </c>
       <c r="S4">
-        <v>0.07098770625250972</v>
+        <v>0.02677039176322355</v>
       </c>
       <c r="T4">
-        <v>0.07098770625250972</v>
+        <v>0.02677039176322355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H5">
         <v>0.176089</v>
       </c>
       <c r="I5">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J5">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>11.497973</v>
+        <v>13.69681033333333</v>
       </c>
       <c r="N5">
-        <v>34.493919</v>
+        <v>41.090431</v>
       </c>
       <c r="O5">
-        <v>0.09461878261088343</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="P5">
-        <v>0.09461878261088341</v>
+        <v>0.1107101339353595</v>
       </c>
       <c r="Q5">
-        <v>0.6748888558656668</v>
+        <v>0.8039525449287777</v>
       </c>
       <c r="R5">
-        <v>6.073999702791</v>
+        <v>7.235572904358999</v>
       </c>
       <c r="S5">
-        <v>0.01750957833353601</v>
+        <v>0.07607028717132257</v>
       </c>
       <c r="T5">
-        <v>0.017509578333536</v>
+        <v>0.07607028717132257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H6">
         <v>0.176089</v>
       </c>
       <c r="I6">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J6">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>298.307327</v>
       </c>
       <c r="O6">
-        <v>0.8182739724253053</v>
+        <v>0.8037307792188669</v>
       </c>
       <c r="P6">
-        <v>0.8182739724253052</v>
+        <v>0.803730779218867</v>
       </c>
       <c r="Q6">
-        <v>5.836515433789223</v>
+        <v>5.836515433789221</v>
       </c>
       <c r="R6">
         <v>52.528638904103</v>
       </c>
       <c r="S6">
-        <v>0.151424820982917</v>
+        <v>0.5522532491859145</v>
       </c>
       <c r="T6">
-        <v>0.151424820982917</v>
+        <v>0.5522532491859146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05869633333333334</v>
+        <v>0.05869633333333333</v>
       </c>
       <c r="H7">
         <v>0.176089</v>
       </c>
       <c r="I7">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="J7">
-        <v>0.1850539380277546</v>
+        <v>0.6871122314397871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>31.755537</v>
       </c>
       <c r="O7">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577355</v>
       </c>
       <c r="P7">
-        <v>0.0871072449638113</v>
+        <v>0.08555908684577354</v>
       </c>
       <c r="Q7">
         <v>0.621311194977</v>
       </c>
       <c r="R7">
-        <v>5.591800754793</v>
+        <v>5.591800754793001</v>
       </c>
       <c r="S7">
-        <v>0.01611953871130158</v>
+        <v>0.05878869508255</v>
       </c>
       <c r="T7">
-        <v>0.01611953871130157</v>
+        <v>0.05878869508254999</v>
       </c>
     </row>
   </sheetData>
